--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/118.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/118.xlsx
@@ -479,13 +479,13 @@
         <v>-9.449415172751058</v>
       </c>
       <c r="E2" t="n">
-        <v>-13.82971642082254</v>
+        <v>-13.91479020468808</v>
       </c>
       <c r="F2" t="n">
-        <v>4.117212314615555</v>
+        <v>4.206554189207494</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.559059603062863</v>
+        <v>-9.554333281737</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.964252350059958</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.41127651305201</v>
+        <v>-14.4946090206396</v>
       </c>
       <c r="F3" t="n">
-        <v>4.332475957939215</v>
+        <v>4.425928815623456</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.22931686369115</v>
+        <v>-9.225310619021583</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.435143869661948</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.03490217431195</v>
+        <v>-15.12023780423432</v>
       </c>
       <c r="F4" t="n">
-        <v>4.39592125751022</v>
+        <v>4.497438973744964</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.194910291823094</v>
+        <v>-9.200199582171152</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.923207048917206</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.65098666913505</v>
+        <v>-15.73623065293753</v>
       </c>
       <c r="F5" t="n">
-        <v>4.380917478453601</v>
+        <v>4.478009996327842</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.847204912952533</v>
+        <v>-8.853148818442676</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.435939702308998</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.30434495014855</v>
+        <v>-16.38292495180459</v>
       </c>
       <c r="F6" t="n">
-        <v>4.368610713782379</v>
+        <v>4.466200739164605</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.442770585868773</v>
+        <v>-8.438004987634384</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.001567178312756</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.85219236256058</v>
+        <v>-16.92875614957899</v>
       </c>
       <c r="F7" t="n">
-        <v>4.607309579192728</v>
+        <v>4.713461970633444</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.421482501448127</v>
+        <v>-8.425370915392119</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.624482176190843</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.83967930439777</v>
+        <v>-17.92536842649686</v>
       </c>
       <c r="F8" t="n">
-        <v>4.764731428561642</v>
+        <v>4.871093296847826</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.594585746267549</v>
+        <v>-7.580838828283738</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.317636195379436</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.46906557890807</v>
+        <v>-18.55245045570702</v>
       </c>
       <c r="F9" t="n">
-        <v>4.728779964958263</v>
+        <v>4.827076974693942</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.190308526817891</v>
+        <v>-7.177674454575625</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.074935514523809</v>
       </c>
       <c r="E10" t="n">
-        <v>-19.20719652082174</v>
+        <v>-19.29195608941907</v>
       </c>
       <c r="F10" t="n">
-        <v>4.872219234892214</v>
+        <v>4.971301782798397</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.344388655608285</v>
+        <v>-6.316646065886668</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.893460525916884</v>
       </c>
       <c r="E11" t="n">
-        <v>-20.07340946143602</v>
+        <v>-20.14909606416404</v>
       </c>
       <c r="F11" t="n">
-        <v>5.055930428367314</v>
+        <v>5.157945652110044</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.095242132530239</v>
+        <v>-6.072212771831643</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.762345540093893</v>
       </c>
       <c r="E12" t="n">
-        <v>-21.02498421657835</v>
+        <v>-21.11103992315702</v>
       </c>
       <c r="F12" t="n">
-        <v>5.404080945534494</v>
+        <v>5.502482693692907</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.486358404270084</v>
+        <v>-5.465502365843215</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.664839437017171</v>
       </c>
       <c r="E13" t="n">
-        <v>-21.69503518371505</v>
+        <v>-21.78177169004148</v>
       </c>
       <c r="F13" t="n">
-        <v>5.53618228120751</v>
+        <v>5.633903229618153</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.068884143555965</v>
+        <v>-5.058423393585426</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.589847431457095</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.50104971586308</v>
+        <v>-22.58566526912915</v>
       </c>
       <c r="F14" t="n">
-        <v>5.827040881139296</v>
+        <v>5.927223182484184</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.134499582044818</v>
+        <v>-4.113394789863955</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.517924832265329</v>
       </c>
       <c r="E15" t="n">
-        <v>-23.49770126968947</v>
+        <v>-23.59043405071742</v>
       </c>
       <c r="F15" t="n">
-        <v>6.04188557077202</v>
+        <v>6.146885839562664</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.705006587321994</v>
+        <v>-3.681545180629621</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.44163182725499</v>
       </c>
       <c r="E16" t="n">
-        <v>-24.1578151789693</v>
+        <v>-24.24320317810304</v>
       </c>
       <c r="F16" t="n">
-        <v>6.329183064330858</v>
+        <v>6.43334542573963</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.486142560716859</v>
+        <v>-3.477318348601536</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.35276964615062</v>
       </c>
       <c r="E17" t="n">
-        <v>-25.03200133201419</v>
+        <v>-25.11398533240908</v>
       </c>
       <c r="F17" t="n">
-        <v>6.677464504526455</v>
+        <v>6.781783973569328</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.371964587634166</v>
+        <v>-3.367434650850929</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.252589379576955</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.76577253708157</v>
+        <v>-25.84195664731757</v>
       </c>
       <c r="F18" t="n">
-        <v>6.560183655670272</v>
+        <v>6.668221338720196</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.994421850587312</v>
+        <v>-2.993714866233858</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.143846654313482</v>
       </c>
       <c r="E19" t="n">
-        <v>-26.40288327026849</v>
+        <v>-26.47521824346902</v>
       </c>
       <c r="F19" t="n">
-        <v>6.676914627807102</v>
+        <v>6.778798928521415</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.599741289120638</v>
+        <v>-2.589699492841034</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.029070614361403</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.90824615995911</v>
+        <v>-26.97865656464192</v>
       </c>
       <c r="F20" t="n">
-        <v>6.895084762361625</v>
+        <v>7.001210969196657</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.361369731281331</v>
+        <v>-2.352532426863166</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.915533522044977</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.26600642741212</v>
+        <v>-27.33209637215715</v>
       </c>
       <c r="F21" t="n">
-        <v>6.855964961470548</v>
+        <v>6.9628505218704</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.148999486885693</v>
+        <v>-2.132332985368175</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.804027361343224</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.77968292940724</v>
+        <v>-27.8520571795163</v>
       </c>
       <c r="F22" t="n">
-        <v>6.90126432930292</v>
+        <v>7.011815734498454</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.18038173679731</v>
+        <v>-2.172225232126914</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.698602292067631</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.99807563311007</v>
+        <v>-28.06665311539503</v>
       </c>
       <c r="F23" t="n">
-        <v>6.923049921231552</v>
+        <v>7.027212282640325</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.255885047285544</v>
+        <v>-2.253764094225184</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.597251184437548</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.40812655811293</v>
+        <v>-28.47390228758977</v>
       </c>
       <c r="F24" t="n">
-        <v>7.13268387433327</v>
+        <v>7.242449741358302</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.571082238200099</v>
+        <v>-2.573753067979811</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.500817326824212</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.30900473329823</v>
+        <v>-28.37006723375204</v>
       </c>
       <c r="F25" t="n">
-        <v>7.103278562150753</v>
+        <v>7.213070613781468</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.466788953762909</v>
+        <v>-2.474081366445751</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.409079281047659</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.78602278733651</v>
+        <v>-28.85185088602471</v>
       </c>
       <c r="F26" t="n">
-        <v>7.116082834329961</v>
+        <v>7.224172886591251</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.556392674411682</v>
+        <v>-2.567665147158408</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.322007119061752</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.64979737626836</v>
+        <v>-28.71146212265289</v>
       </c>
       <c r="F27" t="n">
-        <v>7.30016061228463</v>
+        <v>7.417572384169229</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.634475168559737</v>
+        <v>-2.643430303703477</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.243508349059777</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.89237156331986</v>
+        <v>-28.95347334068219</v>
       </c>
       <c r="F28" t="n">
-        <v>7.110636436347804</v>
+        <v>7.223623009871899</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.795209370547608</v>
+        <v>-2.798587184680773</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.173829951197374</v>
       </c>
       <c r="E29" t="n">
-        <v>-29.23942232704833</v>
+        <v>-29.31467688378257</v>
       </c>
       <c r="F29" t="n">
-        <v>7.167483215286578</v>
+        <v>7.283559572281321</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.906232098645445</v>
+        <v>-2.917242725335336</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.117667326109145</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.93591656257144</v>
+        <v>-29.00787185898956</v>
       </c>
       <c r="F30" t="n">
-        <v>7.0106374272427</v>
+        <v>7.125875876855573</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.890089289241597</v>
+        <v>-2.892799395929834</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.075491984196472</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.84759588760115</v>
+        <v>-28.91816339991806</v>
       </c>
       <c r="F31" t="n">
-        <v>6.961096153289608</v>
+        <v>7.077434356341186</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.799935691873471</v>
+        <v>-2.799477461274011</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.049463947684619</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.72619096334983</v>
+        <v>-28.79924601320666</v>
       </c>
       <c r="F32" t="n">
-        <v>7.047269690593849</v>
+        <v>7.158135311057586</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.311753086865068</v>
+        <v>-3.315641500809061</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.039223077305092</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.62380915512753</v>
+        <v>-28.694743251924</v>
       </c>
       <c r="F33" t="n">
-        <v>7.278584497201465</v>
+        <v>7.399871590727216</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.614852989953868</v>
+        <v>-3.619396019039947</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.040860091848325</v>
       </c>
       <c r="E34" t="n">
-        <v>-28.22470339530035</v>
+        <v>-28.29508761537747</v>
       </c>
       <c r="F34" t="n">
-        <v>7.237998358392114</v>
+        <v>7.349963732294555</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.818268099205766</v>
+        <v>-3.820336683054759</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.050539302576305</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.12230849477521</v>
+        <v>-28.20211917289837</v>
       </c>
       <c r="F35" t="n">
-        <v>7.183665301598952</v>
+        <v>7.295106983387724</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.076212649793453</v>
+        <v>-4.082235109100647</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.056934799124829</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.81604025439871</v>
+        <v>-27.8960473170645</v>
       </c>
       <c r="F36" t="n">
-        <v>7.353734315512972</v>
+        <v>7.466930365882536</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.282128388888121</v>
+        <v>-4.289564816902221</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.049828533732451</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.37839075500549</v>
+        <v>-27.45936664808157</v>
       </c>
       <c r="F37" t="n">
-        <v>7.062849530975503</v>
+        <v>7.166147800396722</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.673116920953428</v>
+        <v>-4.679283395591881</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.016048070185844</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.18120758190626</v>
+        <v>-27.26476265864216</v>
       </c>
       <c r="F38" t="n">
-        <v>7.434854223920308</v>
+        <v>7.543886921986203</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.686981669662816</v>
+        <v>-4.691721083291521</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.943667624258764</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.85259078057894</v>
+        <v>-26.93068636702983</v>
       </c>
       <c r="F39" t="n">
-        <v>7.330534754877434</v>
+        <v>7.4331260399452</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.852690946730543</v>
+        <v>-4.860389220801478</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.82554056290926</v>
       </c>
       <c r="E40" t="n">
-        <v>-26.49693837388345</v>
+        <v>-26.58715743276578</v>
       </c>
       <c r="F40" t="n">
-        <v>7.43624200802153</v>
+        <v>7.53893803151203</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.939073960880251</v>
+        <v>-4.956211785300071</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.653640916215407</v>
       </c>
       <c r="E41" t="n">
-        <v>-26.21445884777036</v>
+        <v>-26.31566234873691</v>
       </c>
       <c r="F41" t="n">
-        <v>7.540482923247353</v>
+        <v>7.639644024970587</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.310214561837502</v>
+        <v>-5.326841786446494</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.429131673041945</v>
       </c>
       <c r="E42" t="n">
-        <v>-25.50061412762809</v>
+        <v>-25.59367421622708</v>
       </c>
       <c r="F42" t="n">
-        <v>7.510737211190952</v>
+        <v>7.610003051336919</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.388506532831024</v>
+        <v>-5.406338249301455</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.153201295127666</v>
       </c>
       <c r="E43" t="n">
-        <v>-25.00908980204117</v>
+        <v>-25.09851023045016</v>
       </c>
       <c r="F43" t="n">
-        <v>7.454911631873832</v>
+        <v>7.55745054773023</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.418278429493109</v>
+        <v>-5.43398919290318</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.834538344270092</v>
       </c>
       <c r="E44" t="n">
-        <v>-24.71927858633672</v>
+        <v>-24.81189353663909</v>
       </c>
       <c r="F44" t="n">
-        <v>7.65726626459555</v>
+        <v>7.756872504615402</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.461836521047531</v>
+        <v>-5.474365854867063</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.485064931797671</v>
       </c>
       <c r="E45" t="n">
-        <v>-24.17791186383135</v>
+        <v>-24.27005549123142</v>
       </c>
       <c r="F45" t="n">
-        <v>7.586567829250229</v>
+        <v>7.686854869017851</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.513119071278573</v>
+        <v>-5.52978557279609</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.116437900687573</v>
       </c>
       <c r="E46" t="n">
-        <v>-23.8009975573209</v>
+        <v>-23.89832573664629</v>
       </c>
       <c r="F46" t="n">
-        <v>7.47811119250937</v>
+        <v>7.578502970699726</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.413539015864404</v>
+        <v>-5.421328936055231</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.746183614892671</v>
       </c>
       <c r="E47" t="n">
-        <v>-23.32699073293621</v>
+        <v>-23.42616492696228</v>
       </c>
       <c r="F47" t="n">
-        <v>7.660434601883248</v>
+        <v>7.761847579695258</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.549934626869506</v>
+        <v>-5.560591761382671</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.385365175689878</v>
       </c>
       <c r="E48" t="n">
-        <v>-22.58196014742494</v>
+        <v>-22.67162932958792</v>
       </c>
       <c r="F48" t="n">
-        <v>7.676433395955837</v>
+        <v>7.78371172544094</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.81073329947669</v>
+        <v>-5.820762003453452</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.048962089129515</v>
       </c>
       <c r="E49" t="n">
-        <v>-22.28370439638758</v>
+        <v>-22.37794279224232</v>
       </c>
       <c r="F49" t="n">
-        <v>7.735348758743604</v>
+        <v>7.842574719017341</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.656807094966516</v>
+        <v>-5.651046481716157</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.7458575447941246</v>
       </c>
       <c r="E50" t="n">
-        <v>-21.80743260361127</v>
+        <v>-21.90595218249526</v>
       </c>
       <c r="F50" t="n">
-        <v>7.656664018664831</v>
+        <v>7.766613177929647</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.702630154912558</v>
+        <v>-5.698872663996982</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.4854967104082091</v>
       </c>
       <c r="E51" t="n">
-        <v>-21.25004090242762</v>
+        <v>-21.34098003796625</v>
       </c>
       <c r="F51" t="n">
-        <v>7.732049498427489</v>
+        <v>7.833305368605399</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.818798158027192</v>
+        <v>-5.813273206227985</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2754345192782102</v>
       </c>
       <c r="E52" t="n">
-        <v>-20.90827942904721</v>
+        <v>-21.00194176357691</v>
       </c>
       <c r="F52" t="n">
-        <v>7.464521382159659</v>
+        <v>7.558288455112101</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.945714941774885</v>
+        <v>-5.941682512499634</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1188841789585452</v>
       </c>
       <c r="E53" t="n">
-        <v>-20.18092345237227</v>
+        <v>-20.27266121838425</v>
       </c>
       <c r="F53" t="n">
-        <v>7.634380919228213</v>
+        <v>7.735820081645906</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.987217541783157</v>
+        <v>-5.980632113453769</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.0198527083559269</v>
       </c>
       <c r="E54" t="n">
-        <v>-19.26007633199947</v>
+        <v>-19.34360522412968</v>
       </c>
       <c r="F54" t="n">
-        <v>7.548285935741022</v>
+        <v>7.651034328442888</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.021139698446069</v>
+        <v>-6.007562980399199</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.02433766402654975</v>
       </c>
       <c r="E55" t="n">
-        <v>-18.87168007589682</v>
+        <v>-18.95458053749063</v>
       </c>
       <c r="F55" t="n">
-        <v>7.508694811947643</v>
+        <v>7.607541698402675</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.467128994749467</v>
+        <v>-6.460687581751339</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.01605244939776524</v>
       </c>
       <c r="E56" t="n">
-        <v>-18.74818038319082</v>
+        <v>-18.83381713607855</v>
       </c>
       <c r="F56" t="n">
-        <v>7.244047002304992</v>
+        <v>7.340275428191679</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.359785203750156</v>
+        <v>-6.339767072705157</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.03810153430095117</v>
       </c>
       <c r="E57" t="n">
-        <v>-18.44807861745278</v>
+        <v>-18.53833695324364</v>
       </c>
       <c r="F57" t="n">
-        <v>7.255123090509092</v>
+        <v>7.349492409392254</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.261907147705411</v>
+        <v>-6.241378416849585</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1319274444824541</v>
       </c>
       <c r="E58" t="n">
-        <v>-17.85984145077402</v>
+        <v>-17.9359862841015</v>
       </c>
       <c r="F58" t="n">
-        <v>7.001891768944427</v>
+        <v>7.088746105996437</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.443798511085512</v>
+        <v>-6.42952790098803</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2571149396592977</v>
       </c>
       <c r="E59" t="n">
-        <v>-17.35151970064117</v>
+        <v>-17.43621380772429</v>
       </c>
       <c r="F59" t="n">
-        <v>7.071280974005575</v>
+        <v>7.16947324531852</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.555240192874284</v>
+        <v>-6.541558736404681</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4060631596059265</v>
       </c>
       <c r="E60" t="n">
-        <v>-17.08300966166021</v>
+        <v>-17.16037207915197</v>
       </c>
       <c r="F60" t="n">
-        <v>7.208907261477799</v>
+        <v>7.308173101623766</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.91474173660524</v>
+        <v>-6.911363922472075</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5704513850250885</v>
       </c>
       <c r="E61" t="n">
-        <v>-16.72261784133601</v>
+        <v>-16.80550521062698</v>
       </c>
       <c r="F61" t="n">
-        <v>6.996131155694067</v>
+        <v>7.087201214261113</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.713120272842659</v>
+        <v>-6.70000178539525</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.7429484619719099</v>
       </c>
       <c r="E62" t="n">
-        <v>-16.3203306519183</v>
+        <v>-16.39805965388963</v>
       </c>
       <c r="F62" t="n">
-        <v>6.994376787113276</v>
+        <v>7.086468045301977</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.703052291957372</v>
+        <v>-6.68422556047097</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.9166043124087206</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.81292536298436</v>
+        <v>-15.88321793694159</v>
       </c>
       <c r="F63" t="n">
-        <v>6.895529900658244</v>
+        <v>6.985447836575219</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.710763658331148</v>
+        <v>-6.694254264447731</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.084509297113663</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.60614553190214</v>
+        <v>-15.67796990529185</v>
       </c>
       <c r="F64" t="n">
-        <v>6.705874801693</v>
+        <v>6.793855076789399</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.461643319858784</v>
+        <v>-6.443994895628138</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.240568347311569</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.36431760611262</v>
+        <v>-15.4346887338869</v>
       </c>
       <c r="F65" t="n">
-        <v>6.667069216070124</v>
+        <v>6.753844999305084</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.550670979182522</v>
+        <v>-6.533205847191659</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.377416542824166</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.97306722799048</v>
+        <v>-15.03884295746731</v>
       </c>
       <c r="F66" t="n">
-        <v>6.674558013295592</v>
+        <v>6.763795149464796</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.633663086896223</v>
+        <v>-6.616341970236619</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.488607334570594</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.8577633168634</v>
+        <v>-14.91937569403656</v>
       </c>
       <c r="F67" t="n">
-        <v>6.62721624621991</v>
+        <v>6.716531936206165</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.59548593180975</v>
+        <v>-6.581555721586153</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.566747879613977</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.48547059325607</v>
+        <v>-14.54115215724193</v>
       </c>
       <c r="F68" t="n">
-        <v>6.340232967929275</v>
+        <v>6.42666835129035</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.44712395600731</v>
+        <v>-6.431557207928498</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.604818469745159</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.64637499518089</v>
+        <v>-14.70352289708502</v>
       </c>
       <c r="F69" t="n">
-        <v>6.324338912279419</v>
+        <v>6.411795495262149</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.353736559837278</v>
+        <v>-6.33729262746807</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.597136170913812</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.51181230657363</v>
+        <v>-14.57294026854164</v>
       </c>
       <c r="F70" t="n">
-        <v>6.271419824193162</v>
+        <v>6.359426283895245</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.443641403451411</v>
+        <v>-6.431007331209146</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.540024014015663</v>
       </c>
       <c r="E71" t="n">
-        <v>-14.49199056007125</v>
+        <v>-14.55683673604632</v>
       </c>
       <c r="F71" t="n">
-        <v>6.370266710648194</v>
+        <v>6.466914090225816</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.288628537805375</v>
+        <v>-6.279477018119008</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.430545426050821</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.44865503766514</v>
+        <v>-14.51141953748837</v>
       </c>
       <c r="F72" t="n">
-        <v>5.986295652906052</v>
+        <v>6.07684201935943</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.386480409244435</v>
+        <v>-6.377093228106918</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.269999626408725</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.6814885514024</v>
+        <v>-14.7505504488925</v>
       </c>
       <c r="F73" t="n">
-        <v>5.944976345137564</v>
+        <v>6.032485297331662</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.099732792404951</v>
+        <v>-6.098829423508872</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.056797286516466</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.82763792802458</v>
+        <v>-14.89702713308573</v>
       </c>
       <c r="F74" t="n">
-        <v>5.873230525564906</v>
+        <v>5.961053693027204</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.868090678226292</v>
+        <v>-5.86345600302032</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7953094102817809</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.09256067602691</v>
+        <v>-15.16539315673543</v>
       </c>
       <c r="F75" t="n">
-        <v>5.59360512147132</v>
+        <v>5.675484383443475</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.672242920016911</v>
+        <v>-5.667005998880221</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4868633112536297</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.20404163472421</v>
+        <v>-15.27548633133151</v>
       </c>
       <c r="F76" t="n">
-        <v>5.614814652074917</v>
+        <v>5.699260005404049</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.411143124444368</v>
+        <v>-5.39795917548275</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1354905109081776</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.40866123583755</v>
+        <v>-15.47253858140233</v>
       </c>
       <c r="F77" t="n">
-        <v>5.551893044617581</v>
+        <v>5.63751670520247</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.394646822863793</v>
+        <v>-5.382929211820448</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.2528702392445481</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.81773023812728</v>
+        <v>-15.88810136590155</v>
       </c>
       <c r="F78" t="n">
-        <v>5.358598285462337</v>
+        <v>5.434297980493198</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.918754706869892</v>
+        <v>-4.899941067686332</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.6758710722491215</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.06607813073198</v>
+        <v>-16.13193241402586</v>
       </c>
       <c r="F79" t="n">
-        <v>4.950720682731204</v>
+        <v>5.020659764511704</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.018439500706795</v>
+        <v>-5.004247444426364</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>1.122484962335846</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.67426796694152</v>
+        <v>-16.74958798518997</v>
       </c>
       <c r="F80" t="n">
-        <v>5.141396981318102</v>
+        <v>5.217672737673998</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.918375030087482</v>
+        <v>-4.898068868379966</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>1.590559657824684</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.27371214485279</v>
+        <v>-17.34447604171232</v>
       </c>
       <c r="F81" t="n">
-        <v>4.810554488507684</v>
+        <v>4.878110771170991</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.869606202002053</v>
+        <v>-4.850059393859356</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>2.068226495996891</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.95815155281255</v>
+        <v>-18.03530449345884</v>
       </c>
       <c r="F82" t="n">
-        <v>4.982482609425231</v>
+        <v>5.063916733100767</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.761712534283388</v>
+        <v>-4.748096539327993</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>2.548877822044353</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.75078575145633</v>
+        <v>-18.82882896869586</v>
       </c>
       <c r="F83" t="n">
-        <v>4.812753995385094</v>
+        <v>4.884604553380487</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.677738503856557</v>
+        <v>-4.665392462276809</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>3.024370983499167</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.64179551365283</v>
+        <v>-19.72087302281686</v>
       </c>
       <c r="F84" t="n">
-        <v>4.876042187321998</v>
+        <v>4.951898989986959</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.541460723577031</v>
+        <v>-4.537166448244944</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>3.483592916584659</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.7070900112784</v>
+        <v>-20.78510704391225</v>
       </c>
       <c r="F85" t="n">
-        <v>4.60618364114834</v>
+        <v>4.678662629680136</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.277768652041826</v>
+        <v>-4.270882100747078</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>3.922104338537981</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.84807111163199</v>
+        <v>-21.93403517209076</v>
       </c>
       <c r="F86" t="n">
-        <v>4.528232070028703</v>
+        <v>4.6008681661946</v>
       </c>
       <c r="G86" t="n">
-        <v>-4.046309830102951</v>
+        <v>-4.046676414582519</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>4.326801019033018</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.01061523476589</v>
+        <v>-23.09570211093427</v>
       </c>
       <c r="F87" t="n">
-        <v>4.426923830639427</v>
+        <v>4.497805558224532</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.967886936081011</v>
+        <v>-3.965595783083709</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>4.694044742333746</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.29413223615735</v>
+        <v>-24.37899654317742</v>
       </c>
       <c r="F88" t="n">
-        <v>4.237347285491233</v>
+        <v>4.312863688282309</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.111208375289387</v>
+        <v>-4.11897211087453</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>5.013958006941285</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.032672222813</v>
+        <v>-26.11601782270343</v>
       </c>
       <c r="F89" t="n">
-        <v>4.263453337357635</v>
+        <v>4.34017423201015</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.141870548544709</v>
+        <v>-4.150354360786148</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>5.279343520337718</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.6430254723453</v>
+        <v>-27.73442283848339</v>
       </c>
       <c r="F90" t="n">
-        <v>3.971494983987144</v>
+        <v>4.042586188417716</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.219691196635929</v>
+        <v>-4.229314039224597</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>5.483908526097083</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.2141541825638</v>
+        <v>-29.30585267166725</v>
       </c>
       <c r="F91" t="n">
-        <v>3.62088311388572</v>
+        <v>3.687339643110321</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.181435487732405</v>
+        <v>-4.191045238018233</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>5.619337063674832</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.86150627992682</v>
+        <v>-30.94997097022837</v>
       </c>
       <c r="F92" t="n">
-        <v>3.283756315711273</v>
+        <v>3.34335247824681</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.379103076036786</v>
+        <v>-4.391894255913152</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>5.681217376828302</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.9699561910726</v>
+        <v>-33.05851252749403</v>
       </c>
       <c r="F93" t="n">
-        <v>3.102925428861353</v>
+        <v>3.159798392405811</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.761869641917489</v>
+        <v>-4.780290512015798</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>5.663641670133972</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.02976819716136</v>
+        <v>-35.12628465371056</v>
       </c>
       <c r="F94" t="n">
-        <v>2.980276735840063</v>
+        <v>3.032410285755816</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.984203128775681</v>
+        <v>-5.009942596162515</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>5.565899159770475</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.06441679718832</v>
+        <v>-37.15532974812127</v>
       </c>
       <c r="F95" t="n">
-        <v>2.608690996586194</v>
+        <v>2.658310824356336</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.276907743408151</v>
+        <v>-5.309376654455631</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>5.384137294336131</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.56291259459481</v>
+        <v>-39.65906246666444</v>
       </c>
       <c r="F96" t="n">
-        <v>2.280885918035056</v>
+        <v>2.329903499874479</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.631525858179143</v>
+        <v>-5.67268805831353</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>5.12665022708295</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.72476600903198</v>
+        <v>-41.81519454475978</v>
       </c>
       <c r="F97" t="n">
-        <v>2.028518688457945</v>
+        <v>2.069445227141181</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.161148785035488</v>
+        <v>-6.204261738293292</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>4.787934344714485</v>
       </c>
       <c r="E98" t="n">
-        <v>-44.0823624432558</v>
+        <v>-44.18120932971083</v>
       </c>
       <c r="F98" t="n">
-        <v>1.439600722031423</v>
+        <v>1.474635724435882</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.40267558785965</v>
+        <v>-6.448511740108533</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>4.398364371550633</v>
       </c>
       <c r="E99" t="n">
-        <v>-46.28345348930963</v>
+        <v>-46.37763951595301</v>
       </c>
       <c r="F99" t="n">
-        <v>1.190244722107908</v>
+        <v>1.221417495174058</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.556353038615831</v>
+        <v>-6.591937917739642</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>3.93885028904367</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.61909413166787</v>
+        <v>-48.71890984853319</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9926425953177367</v>
+        <v>1.021524215386584</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.806913530400784</v>
+        <v>-6.847787699872653</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>3.480464887448194</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.75015444982131</v>
+        <v>-50.846134121954</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7864519178633929</v>
+        <v>0.8112225548399385</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.981447019583834</v>
+        <v>-7.027846140854912</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>2.9520962704914</v>
       </c>
       <c r="E102" t="n">
-        <v>-53.33013674011469</v>
+        <v>-53.42584147388771</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3151682924697796</v>
+        <v>0.3301327946178725</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.323745277380763</v>
+        <v>-7.372317720923566</v>
       </c>
     </row>
   </sheetData>
